--- a/import/Preise-strukturiert.xlsx
+++ b/import/Preise-strukturiert.xlsx
@@ -1,10 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="26004"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="28315"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Lolo/git/Esko-Bot/import/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="14620" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="14560" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Blatt1" sheetId="1" r:id="rId1"/>
@@ -13,8 +18,11 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Blatt1!$A$3:$K$54</definedName>
   </definedNames>
-  <calcPr calcId="140000" concurrentCalc="0"/>
+  <calcPr calcId="150001" concurrentCalc="0"/>
   <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
+      <x14:workbookPr defaultImageDpi="32767"/>
+    </ext>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
     </ext>
@@ -154,9 +162,6 @@
     <t>*</t>
   </si>
   <si>
-    <t>jugendliche</t>
-  </si>
-  <si>
     <t>kategorie</t>
   </si>
   <si>
@@ -183,6 +188,9 @@
   <si>
     <t>aktion</t>
   </si>
+  <si>
+    <t>jugendlicher</t>
+  </si>
 </sst>
 </file>
 
@@ -194,7 +202,6 @@
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
-      <charset val="204"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -350,83 +357,88 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="74">
-    <cellStyle name="Besuchter Link" xfId="2" builtinId="9" hidden="1"/>
-    <cellStyle name="Besuchter Link" xfId="4" builtinId="9" hidden="1"/>
-    <cellStyle name="Besuchter Link" xfId="6" builtinId="9" hidden="1"/>
-    <cellStyle name="Besuchter Link" xfId="8" builtinId="9" hidden="1"/>
-    <cellStyle name="Besuchter Link" xfId="10" builtinId="9" hidden="1"/>
-    <cellStyle name="Besuchter Link" xfId="12" builtinId="9" hidden="1"/>
-    <cellStyle name="Besuchter Link" xfId="14" builtinId="9" hidden="1"/>
-    <cellStyle name="Besuchter Link" xfId="16" builtinId="9" hidden="1"/>
-    <cellStyle name="Besuchter Link" xfId="18" builtinId="9" hidden="1"/>
-    <cellStyle name="Besuchter Link" xfId="20" builtinId="9" hidden="1"/>
-    <cellStyle name="Besuchter Link" xfId="21" builtinId="9" hidden="1"/>
-    <cellStyle name="Besuchter Link" xfId="22" builtinId="9" hidden="1"/>
-    <cellStyle name="Besuchter Link" xfId="23" builtinId="9" hidden="1"/>
-    <cellStyle name="Besuchter Link" xfId="24" builtinId="9" hidden="1"/>
-    <cellStyle name="Besuchter Link" xfId="25" builtinId="9" hidden="1"/>
-    <cellStyle name="Besuchter Link" xfId="26" builtinId="9" hidden="1"/>
-    <cellStyle name="Besuchter Link" xfId="27" builtinId="9" hidden="1"/>
-    <cellStyle name="Besuchter Link" xfId="28" builtinId="9" hidden="1"/>
-    <cellStyle name="Besuchter Link" xfId="29" builtinId="9" hidden="1"/>
-    <cellStyle name="Besuchter Link" xfId="30" builtinId="9" hidden="1"/>
-    <cellStyle name="Besuchter Link" xfId="31" builtinId="9" hidden="1"/>
-    <cellStyle name="Besuchter Link" xfId="32" builtinId="9" hidden="1"/>
-    <cellStyle name="Besuchter Link" xfId="33" builtinId="9" hidden="1"/>
-    <cellStyle name="Besuchter Link" xfId="34" builtinId="9" hidden="1"/>
-    <cellStyle name="Besuchter Link" xfId="35" builtinId="9" hidden="1"/>
-    <cellStyle name="Besuchter Link" xfId="36" builtinId="9" hidden="1"/>
-    <cellStyle name="Besuchter Link" xfId="37" builtinId="9" hidden="1"/>
-    <cellStyle name="Besuchter Link" xfId="38" builtinId="9" hidden="1"/>
-    <cellStyle name="Besuchter Link" xfId="39" builtinId="9" hidden="1"/>
-    <cellStyle name="Besuchter Link" xfId="40" builtinId="9" hidden="1"/>
-    <cellStyle name="Besuchter Link" xfId="41" builtinId="9" hidden="1"/>
-    <cellStyle name="Besuchter Link" xfId="42" builtinId="9" hidden="1"/>
-    <cellStyle name="Besuchter Link" xfId="43" builtinId="9" hidden="1"/>
-    <cellStyle name="Besuchter Link" xfId="44" builtinId="9" hidden="1"/>
-    <cellStyle name="Besuchter Link" xfId="45" builtinId="9" hidden="1"/>
-    <cellStyle name="Besuchter Link" xfId="46" builtinId="9" hidden="1"/>
-    <cellStyle name="Besuchter Link" xfId="47" builtinId="9" hidden="1"/>
-    <cellStyle name="Besuchter Link" xfId="48" builtinId="9" hidden="1"/>
-    <cellStyle name="Besuchter Link" xfId="49" builtinId="9" hidden="1"/>
-    <cellStyle name="Besuchter Link" xfId="50" builtinId="9" hidden="1"/>
-    <cellStyle name="Besuchter Link" xfId="51" builtinId="9" hidden="1"/>
-    <cellStyle name="Besuchter Link" xfId="52" builtinId="9" hidden="1"/>
-    <cellStyle name="Besuchter Link" xfId="53" builtinId="9" hidden="1"/>
-    <cellStyle name="Besuchter Link" xfId="54" builtinId="9" hidden="1"/>
-    <cellStyle name="Besuchter Link" xfId="55" builtinId="9" hidden="1"/>
-    <cellStyle name="Besuchter Link" xfId="56" builtinId="9" hidden="1"/>
-    <cellStyle name="Besuchter Link" xfId="57" builtinId="9" hidden="1"/>
-    <cellStyle name="Besuchter Link" xfId="58" builtinId="9" hidden="1"/>
-    <cellStyle name="Besuchter Link" xfId="59" builtinId="9" hidden="1"/>
-    <cellStyle name="Besuchter Link" xfId="60" builtinId="9" hidden="1"/>
-    <cellStyle name="Besuchter Link" xfId="61" builtinId="9" hidden="1"/>
-    <cellStyle name="Besuchter Link" xfId="62" builtinId="9" hidden="1"/>
-    <cellStyle name="Besuchter Link" xfId="63" builtinId="9" hidden="1"/>
-    <cellStyle name="Besuchter Link" xfId="64" builtinId="9" hidden="1"/>
-    <cellStyle name="Besuchter Link" xfId="65" builtinId="9" hidden="1"/>
-    <cellStyle name="Besuchter Link" xfId="66" builtinId="9" hidden="1"/>
-    <cellStyle name="Besuchter Link" xfId="67" builtinId="9" hidden="1"/>
-    <cellStyle name="Besuchter Link" xfId="68" builtinId="9" hidden="1"/>
-    <cellStyle name="Besuchter Link" xfId="69" builtinId="9" hidden="1"/>
-    <cellStyle name="Besuchter Link" xfId="70" builtinId="9" hidden="1"/>
-    <cellStyle name="Besuchter Link" xfId="71" builtinId="9" hidden="1"/>
-    <cellStyle name="Besuchter Link" xfId="72" builtinId="9" hidden="1"/>
-    <cellStyle name="Besuchter Link" xfId="73" builtinId="9" hidden="1"/>
-    <cellStyle name="Link" xfId="1" builtinId="8" hidden="1"/>
-    <cellStyle name="Link" xfId="3" builtinId="8" hidden="1"/>
-    <cellStyle name="Link" xfId="5" builtinId="8" hidden="1"/>
-    <cellStyle name="Link" xfId="7" builtinId="8" hidden="1"/>
-    <cellStyle name="Link" xfId="9" builtinId="8" hidden="1"/>
-    <cellStyle name="Link" xfId="11" builtinId="8" hidden="1"/>
-    <cellStyle name="Link" xfId="13" builtinId="8" hidden="1"/>
-    <cellStyle name="Link" xfId="15" builtinId="8" hidden="1"/>
-    <cellStyle name="Link" xfId="17" builtinId="8" hidden="1"/>
-    <cellStyle name="Link" xfId="19" builtinId="8"/>
-    <cellStyle name="Standard" xfId="0" builtinId="0"/>
+    <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="8" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="10" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="12" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="14" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="16" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="18" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="20" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="21" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="22" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="23" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="24" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="25" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="26" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="27" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="28" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="29" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="30" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="31" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="32" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="33" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="34" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="35" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="36" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="37" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="38" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="39" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="40" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="41" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="42" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="43" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="44" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="45" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="46" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="47" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="48" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="49" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="50" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="51" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="52" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="53" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="54" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="55" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="56" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="57" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="58" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="59" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="60" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="61" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="62" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="63" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="64" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="65" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="66" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="67" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="68" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="69" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="70" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="71" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="72" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="73" builtinId="9" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="7" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="9" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="11" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="13" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="15" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="17" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="19" builtinId="8"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium4"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -476,7 +488,7 @@
         <a:noFill/>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40dd-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
               <a:solidFill>
                 <a:srgbClr val="FFFFFF"/>
               </a:solidFill>
@@ -531,7 +543,7 @@
         <a:noFill/>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40dd-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
               <a:solidFill>
                 <a:srgbClr val="FFFFFF"/>
               </a:solidFill>
@@ -586,7 +598,7 @@
         <a:noFill/>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40dd-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
               <a:solidFill>
                 <a:srgbClr val="FFFFFF"/>
               </a:solidFill>
@@ -643,7 +655,7 @@
         <a:noFill/>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40dd-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
               <a:solidFill>
                 <a:srgbClr val="FFFFFF"/>
               </a:solidFill>
@@ -700,7 +712,7 @@
         <a:noFill/>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40dd-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
               <a:solidFill>
                 <a:srgbClr val="FFFFFF"/>
               </a:solidFill>
@@ -757,7 +769,7 @@
         <a:noFill/>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40dd-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
               <a:solidFill>
                 <a:srgbClr val="FFFFFF"/>
               </a:solidFill>
@@ -812,7 +824,7 @@
         <a:noFill/>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40dd-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
               <a:solidFill>
                 <a:srgbClr val="FFFFFF"/>
               </a:solidFill>
@@ -869,7 +881,7 @@
         <a:noFill/>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40dd-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
               <a:solidFill>
                 <a:srgbClr val="FFFFFF"/>
               </a:solidFill>
@@ -924,7 +936,7 @@
         <a:noFill/>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40dd-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
               <a:solidFill>
                 <a:srgbClr val="FFFFFF"/>
               </a:solidFill>
@@ -981,7 +993,7 @@
         <a:noFill/>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40dd-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
               <a:solidFill>
                 <a:srgbClr val="FFFFFF"/>
               </a:solidFill>
@@ -1038,7 +1050,7 @@
         <a:noFill/>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40dd-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
               <a:solidFill>
                 <a:srgbClr val="FFFFFF"/>
               </a:solidFill>
@@ -1095,7 +1107,7 @@
         <a:noFill/>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40dd-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
               <a:solidFill>
                 <a:srgbClr val="FFFFFF"/>
               </a:solidFill>
@@ -1150,7 +1162,7 @@
         <a:noFill/>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40dd-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
               <a:solidFill>
                 <a:srgbClr val="FFFFFF"/>
               </a:solidFill>
@@ -1207,7 +1219,7 @@
         <a:noFill/>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40dd-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
               <a:solidFill>
                 <a:srgbClr val="FFFFFF"/>
               </a:solidFill>
@@ -1262,7 +1274,7 @@
         <a:noFill/>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40dd-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
               <a:solidFill>
                 <a:srgbClr val="FFFFFF"/>
               </a:solidFill>
@@ -1317,7 +1329,7 @@
         <a:noFill/>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40dd-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
               <a:solidFill>
                 <a:srgbClr val="FFFFFF"/>
               </a:solidFill>
@@ -1372,7 +1384,7 @@
         <a:noFill/>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40dd-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
               <a:solidFill>
                 <a:srgbClr val="FFFFFF"/>
               </a:solidFill>
@@ -1429,7 +1441,7 @@
         <a:noFill/>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40dd-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
               <a:solidFill>
                 <a:srgbClr val="FFFFFF"/>
               </a:solidFill>
@@ -1484,7 +1496,7 @@
         <a:noFill/>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40dd-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
               <a:solidFill>
                 <a:srgbClr val="FFFFFF"/>
               </a:solidFill>
@@ -1539,7 +1551,7 @@
         <a:noFill/>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40dd-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
               <a:solidFill>
                 <a:srgbClr val="FFFFFF"/>
               </a:solidFill>
@@ -1596,7 +1608,7 @@
         <a:noFill/>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40dd-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
               <a:solidFill>
                 <a:srgbClr val="FFFFFF"/>
               </a:solidFill>
@@ -1651,7 +1663,7 @@
         <a:noFill/>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40dd-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
               <a:solidFill>
                 <a:srgbClr val="FFFFFF"/>
               </a:solidFill>
@@ -1706,7 +1718,7 @@
         <a:noFill/>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40dd-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
               <a:solidFill>
                 <a:srgbClr val="FFFFFF"/>
               </a:solidFill>
@@ -1763,7 +1775,7 @@
         <a:noFill/>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40dd-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
               <a:solidFill>
                 <a:srgbClr val="FFFFFF"/>
               </a:solidFill>
@@ -1820,7 +1832,7 @@
         <a:noFill/>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40dd-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
               <a:solidFill>
                 <a:srgbClr val="FFFFFF"/>
               </a:solidFill>
@@ -1877,7 +1889,7 @@
         <a:noFill/>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40dd-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
               <a:solidFill>
                 <a:srgbClr val="FFFFFF"/>
               </a:solidFill>
@@ -1932,7 +1944,7 @@
         <a:noFill/>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40dd-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
               <a:solidFill>
                 <a:srgbClr val="FFFFFF"/>
               </a:solidFill>
@@ -1989,7 +2001,7 @@
         <a:noFill/>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40dd-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
               <a:solidFill>
                 <a:srgbClr val="FFFFFF"/>
               </a:solidFill>
@@ -2044,7 +2056,7 @@
         <a:noFill/>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40dd-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
               <a:solidFill>
                 <a:srgbClr val="FFFFFF"/>
               </a:solidFill>
@@ -2099,7 +2111,7 @@
         <a:noFill/>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40dd-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
               <a:solidFill>
                 <a:srgbClr val="FFFFFF"/>
               </a:solidFill>
@@ -2154,7 +2166,7 @@
         <a:noFill/>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40dd-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
               <a:solidFill>
                 <a:srgbClr val="FFFFFF"/>
               </a:solidFill>
@@ -2211,7 +2223,7 @@
         <a:noFill/>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40dd-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
               <a:solidFill>
                 <a:srgbClr val="FFFFFF"/>
               </a:solidFill>
@@ -2266,7 +2278,7 @@
         <a:noFill/>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40dd-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
               <a:solidFill>
                 <a:srgbClr val="FFFFFF"/>
               </a:solidFill>
@@ -2321,7 +2333,7 @@
         <a:noFill/>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40dd-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
               <a:solidFill>
                 <a:srgbClr val="FFFFFF"/>
               </a:solidFill>
@@ -2378,7 +2390,7 @@
         <a:noFill/>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40dd-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
               <a:solidFill>
                 <a:srgbClr val="FFFFFF"/>
               </a:solidFill>
@@ -2433,7 +2445,7 @@
         <a:noFill/>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40dd-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
               <a:solidFill>
                 <a:srgbClr val="FFFFFF"/>
               </a:solidFill>
@@ -2488,7 +2500,7 @@
         <a:noFill/>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40dd-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
               <a:solidFill>
                 <a:srgbClr val="FFFFFF"/>
               </a:solidFill>
@@ -2545,7 +2557,7 @@
         <a:noFill/>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40dd-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
               <a:solidFill>
                 <a:srgbClr val="FFFFFF"/>
               </a:solidFill>
@@ -2602,7 +2614,7 @@
         <a:noFill/>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40dd-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
               <a:solidFill>
                 <a:srgbClr val="FFFFFF"/>
               </a:solidFill>
@@ -2659,7 +2671,7 @@
         <a:noFill/>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40dd-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
               <a:solidFill>
                 <a:srgbClr val="FFFFFF"/>
               </a:solidFill>
@@ -2998,15 +3010,15 @@
   <dimension ref="A2:W54"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="W4" sqref="W4:W54"/>
+      <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="13" max="22" width="0" hidden="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:23">
+    <row r="2" spans="1:23" x14ac:dyDescent="0.2">
       <c r="M2">
         <v>1</v>
       </c>
@@ -3041,7 +3053,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:23">
+    <row r="3" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>0</v>
       </c>
@@ -3055,25 +3067,25 @@
         <v>5</v>
       </c>
       <c r="E3" t="s">
+        <v>43</v>
+      </c>
+      <c r="F3" t="s">
         <v>44</v>
       </c>
-      <c r="F3" t="s">
+      <c r="G3" t="s">
         <v>45</v>
       </c>
-      <c r="G3" t="s">
+      <c r="H3" t="s">
         <v>46</v>
       </c>
-      <c r="H3" t="s">
+      <c r="I3" t="s">
         <v>47</v>
       </c>
-      <c r="I3" t="s">
+      <c r="J3" t="s">
         <v>48</v>
       </c>
-      <c r="J3" t="s">
+      <c r="K3" t="s">
         <v>49</v>
-      </c>
-      <c r="K3" t="s">
-        <v>50</v>
       </c>
       <c r="M3" t="str">
         <f>A3</f>
@@ -3120,7 +3132,7 @@
         <v>tage_100_ab</v>
       </c>
     </row>
-    <row r="4" spans="1:23">
+    <row r="4" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>1</v>
       </c>
@@ -3131,7 +3143,7 @@
         <v>4</v>
       </c>
       <c r="D4" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="E4" t="s">
         <v>7</v>
@@ -3203,7 +3215,7 @@
         <v>{"art":"ski","typ":"set","alter":"kind","farbe":"aktion","kategorie":"25-28","tage_1":-1,"tage_2":-1,"tage_7":-1,"tage_14":-1,"tage_100":60,"tage_100_ab":true},</v>
       </c>
     </row>
-    <row r="5" spans="1:23">
+    <row r="5" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>1</v>
       </c>
@@ -3214,7 +3226,7 @@
         <v>4</v>
       </c>
       <c r="D5" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="E5" t="s">
         <v>8</v>
@@ -3286,7 +3298,7 @@
         <v>{"art":"ski","typ":"set","alter":"kind","farbe":"aktion","kategorie":"29-34","tage_1":-1,"tage_2":-1,"tage_7":-1,"tage_14":-1,"tage_100":75,"tage_100_ab":true},</v>
       </c>
     </row>
-    <row r="6" spans="1:23">
+    <row r="6" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>1</v>
       </c>
@@ -3297,7 +3309,7 @@
         <v>4</v>
       </c>
       <c r="D6" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="E6" t="s">
         <v>9</v>
@@ -3369,7 +3381,7 @@
         <v>{"art":"ski","typ":"set","alter":"kind","farbe":"aktion","kategorie":"&gt;34","tage_1":-1,"tage_2":-1,"tage_7":-1,"tage_14":-1,"tage_100":105,"tage_100_ab":true},</v>
       </c>
     </row>
-    <row r="7" spans="1:23">
+    <row r="7" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>1</v>
       </c>
@@ -3449,7 +3461,7 @@
         <v>{"art":"ski","typ":"set","alter":"kind","farbe":"blau","kategorie":"25-28","tage_1":20,"tage_2":30,"tage_7":55,"tage_14":75,"tage_100":100,"tage_100_ab":false},</v>
       </c>
     </row>
-    <row r="8" spans="1:23">
+    <row r="8" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>1</v>
       </c>
@@ -3529,7 +3541,7 @@
         <v>{"art":"ski","typ":"set","alter":"kind","farbe":"blau","kategorie":"29-34","tage_1":20,"tage_2":30,"tage_7":60,"tage_14":85,"tage_100":115,"tage_100_ab":false},</v>
       </c>
     </row>
-    <row r="9" spans="1:23">
+    <row r="9" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>1</v>
       </c>
@@ -3609,7 +3621,7 @@
         <v>{"art":"ski","typ":"set","alter":"kind","farbe":"blau","kategorie":"&gt;34","tage_1":20,"tage_2":30,"tage_7":70,"tage_14":100,"tage_100":145,"tage_100_ab":false},</v>
       </c>
     </row>
-    <row r="10" spans="1:23">
+    <row r="10" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>1</v>
       </c>
@@ -3689,7 +3701,7 @@
         <v>{"art":"ski","typ":"set","alter":"kind","farbe":"rot","kategorie":"25-28","tage_1":25,"tage_2":35,"tage_7":70,"tage_14":95,"tage_100":125,"tage_100_ab":false},</v>
       </c>
     </row>
-    <row r="11" spans="1:23">
+    <row r="11" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>1</v>
       </c>
@@ -3769,7 +3781,7 @@
         <v>{"art":"ski","typ":"set","alter":"kind","farbe":"rot","kategorie":"29-34","tage_1":25,"tage_2":35,"tage_7":75,"tage_14":105,"tage_100":140,"tage_100_ab":false},</v>
       </c>
     </row>
-    <row r="12" spans="1:23">
+    <row r="12" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>1</v>
       </c>
@@ -3849,7 +3861,7 @@
         <v>{"art":"ski","typ":"set","alter":"kind","farbe":"rot","kategorie":"&gt;34","tage_1":25,"tage_2":35,"tage_7":85,"tage_14":120,"tage_100":170,"tage_100_ab":false},</v>
       </c>
     </row>
-    <row r="13" spans="1:23">
+    <row r="13" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>1</v>
       </c>
@@ -3929,7 +3941,7 @@
         <v>{"art":"ski","typ":"set","alter":"kind","farbe":"schwarz","kategorie":"25-28","tage_1":-1,"tage_2":-1,"tage_7":-1,"tage_14":-1,"tage_100":-1,"tage_100_ab":false},</v>
       </c>
     </row>
-    <row r="14" spans="1:23">
+    <row r="14" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>1</v>
       </c>
@@ -4009,7 +4021,7 @@
         <v>{"art":"ski","typ":"set","alter":"kind","farbe":"schwarz","kategorie":"29-34","tage_1":-1,"tage_2":-1,"tage_7":-1,"tage_14":-1,"tage_100":-1,"tage_100_ab":false},</v>
       </c>
     </row>
-    <row r="15" spans="1:23">
+    <row r="15" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>1</v>
       </c>
@@ -4089,7 +4101,7 @@
         <v>{"art":"ski","typ":"set","alter":"kind","farbe":"schwarz","kategorie":"&gt;34","tage_1":-1,"tage_2":-1,"tage_7":-1,"tage_14":-1,"tage_100":-1,"tage_100_ab":false},</v>
       </c>
     </row>
-    <row r="16" spans="1:23">
+    <row r="16" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>1</v>
       </c>
@@ -4100,7 +4112,7 @@
         <v>4</v>
       </c>
       <c r="D16" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="F16">
         <v>-1</v>
@@ -4169,7 +4181,7 @@
         <v>{"art":"ski","typ":"ski","alter":"kind","farbe":"aktion","kategorie":"","tage_1":-1,"tage_2":-1,"tage_7":-1,"tage_14":-1,"tage_100":30,"tage_100_ab":true},</v>
       </c>
     </row>
-    <row r="17" spans="1:23">
+    <row r="17" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>1</v>
       </c>
@@ -4246,7 +4258,7 @@
         <v>{"art":"ski","typ":"ski","alter":"kind","farbe":"blau","kategorie":"","tage_1":10,"tage_2":15,"tage_7":35,"tage_14":50,"tage_100":70,"tage_100_ab":false},</v>
       </c>
     </row>
-    <row r="18" spans="1:23">
+    <row r="18" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>1</v>
       </c>
@@ -4323,7 +4335,7 @@
         <v>{"art":"ski","typ":"ski","alter":"kind","farbe":"rot","kategorie":"","tage_1":15,"tage_2":20,"tage_7":50,"tage_14":70,"tage_100":95,"tage_100_ab":false},</v>
       </c>
     </row>
-    <row r="19" spans="1:23">
+    <row r="19" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>1</v>
       </c>
@@ -4334,7 +4346,7 @@
         <v>4</v>
       </c>
       <c r="D19" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="E19" t="s">
         <v>7</v>
@@ -4406,7 +4418,7 @@
         <v>{"art":"ski","typ":"schuhe","alter":"kind","farbe":"aktion","kategorie":"25-28","tage_1":10,"tage_2":15,"tage_7":20,"tage_14":25,"tage_100":30,"tage_100_ab":true},</v>
       </c>
     </row>
-    <row r="20" spans="1:23">
+    <row r="20" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>1</v>
       </c>
@@ -4417,7 +4429,7 @@
         <v>4</v>
       </c>
       <c r="D20" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="E20" t="s">
         <v>8</v>
@@ -4489,7 +4501,7 @@
         <v>{"art":"ski","typ":"schuhe","alter":"kind","farbe":"aktion","kategorie":"29-34","tage_1":10,"tage_2":15,"tage_7":25,"tage_14":35,"tage_100":45,"tage_100_ab":true},</v>
       </c>
     </row>
-    <row r="21" spans="1:23">
+    <row r="21" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
         <v>1</v>
       </c>
@@ -4500,7 +4512,7 @@
         <v>4</v>
       </c>
       <c r="D21" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="E21" t="s">
         <v>9</v>
@@ -4572,7 +4584,7 @@
         <v>{"art":"ski","typ":"schuhe","alter":"kind","farbe":"aktion","kategorie":"&gt;34","tage_1":10,"tage_2":15,"tage_7":35,"tage_14":50,"tage_100":75,"tage_100_ab":true},</v>
       </c>
     </row>
-    <row r="22" spans="1:23">
+    <row r="22" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
         <v>1</v>
       </c>
@@ -4652,7 +4664,7 @@
         <v>{"art":"ski","typ":"schuhe","alter":"kind","farbe":"blau","kategorie":"25-28","tage_1":10,"tage_2":15,"tage_7":20,"tage_14":25,"tage_100":30,"tage_100_ab":false},</v>
       </c>
     </row>
-    <row r="23" spans="1:23">
+    <row r="23" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
         <v>1</v>
       </c>
@@ -4732,7 +4744,7 @@
         <v>{"art":"ski","typ":"schuhe","alter":"kind","farbe":"blau","kategorie":"29-34","tage_1":10,"tage_2":15,"tage_7":25,"tage_14":35,"tage_100":45,"tage_100_ab":false},</v>
       </c>
     </row>
-    <row r="24" spans="1:23">
+    <row r="24" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
         <v>1</v>
       </c>
@@ -4812,7 +4824,7 @@
         <v>{"art":"ski","typ":"schuhe","alter":"kind","farbe":"blau","kategorie":"&gt;34","tage_1":10,"tage_2":15,"tage_7":35,"tage_14":50,"tage_100":75,"tage_100_ab":false},</v>
       </c>
     </row>
-    <row r="25" spans="1:23">
+    <row r="25" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
         <v>1</v>
       </c>
@@ -4892,7 +4904,7 @@
         <v>{"art":"ski","typ":"schuhe","alter":"kind","farbe":"rot","kategorie":"25-28","tage_1":10,"tage_2":15,"tage_7":20,"tage_14":25,"tage_100":30,"tage_100_ab":false},</v>
       </c>
     </row>
-    <row r="26" spans="1:23">
+    <row r="26" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
         <v>1</v>
       </c>
@@ -4972,7 +4984,7 @@
         <v>{"art":"ski","typ":"schuhe","alter":"kind","farbe":"rot","kategorie":"29-34","tage_1":10,"tage_2":15,"tage_7":25,"tage_14":35,"tage_100":45,"tage_100_ab":false},</v>
       </c>
     </row>
-    <row r="27" spans="1:23">
+    <row r="27" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
         <v>1</v>
       </c>
@@ -5052,7 +5064,7 @@
         <v>{"art":"ski","typ":"schuhe","alter":"kind","farbe":"rot","kategorie":"&gt;34","tage_1":10,"tage_2":15,"tage_7":35,"tage_14":50,"tage_100":75,"tage_100_ab":false},</v>
       </c>
     </row>
-    <row r="28" spans="1:23">
+    <row r="28" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
         <v>1</v>
       </c>
@@ -5129,7 +5141,7 @@
         <v>{"art":"ski","typ":"stock","alter":"kind","farbe":"*","kategorie":"","tage_1":5,"tage_2":5,"tage_7":5,"tage_14":5,"tage_100":10,"tage_100_ab":false},</v>
       </c>
     </row>
-    <row r="29" spans="1:23">
+    <row r="29" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
         <v>1</v>
       </c>
@@ -5137,10 +5149,10 @@
         <v>10</v>
       </c>
       <c r="C29" t="s">
-        <v>43</v>
+        <v>52</v>
       </c>
       <c r="D29" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="F29">
         <v>-1</v>
@@ -5171,42 +5183,42 @@
       </c>
       <c r="O29" t="str">
         <f t="shared" si="5"/>
-        <v>{"art":"ski","typ":"set","alter":"jugendliche"</v>
+        <v>{"art":"ski","typ":"set","alter":"jugendlicher"</v>
       </c>
       <c r="P29" t="str">
         <f t="shared" si="6"/>
-        <v>{"art":"ski","typ":"set","alter":"jugendliche","farbe":"aktion"</v>
+        <v>{"art":"ski","typ":"set","alter":"jugendlicher","farbe":"aktion"</v>
       </c>
       <c r="Q29" t="str">
         <f t="shared" si="7"/>
-        <v>{"art":"ski","typ":"set","alter":"jugendliche","farbe":"aktion","kategorie":""</v>
+        <v>{"art":"ski","typ":"set","alter":"jugendlicher","farbe":"aktion","kategorie":""</v>
       </c>
       <c r="R29" t="str">
         <f t="shared" si="8"/>
-        <v>{"art":"ski","typ":"set","alter":"jugendliche","farbe":"aktion","kategorie":"","tage_1":-1</v>
+        <v>{"art":"ski","typ":"set","alter":"jugendlicher","farbe":"aktion","kategorie":"","tage_1":-1</v>
       </c>
       <c r="S29" t="str">
         <f t="shared" si="9"/>
-        <v>{"art":"ski","typ":"set","alter":"jugendliche","farbe":"aktion","kategorie":"","tage_1":-1,"tage_2":-1</v>
+        <v>{"art":"ski","typ":"set","alter":"jugendlicher","farbe":"aktion","kategorie":"","tage_1":-1,"tage_2":-1</v>
       </c>
       <c r="T29" t="str">
         <f t="shared" si="10"/>
-        <v>{"art":"ski","typ":"set","alter":"jugendliche","farbe":"aktion","kategorie":"","tage_1":-1,"tage_2":-1,"tage_7":-1</v>
+        <v>{"art":"ski","typ":"set","alter":"jugendlicher","farbe":"aktion","kategorie":"","tage_1":-1,"tage_2":-1,"tage_7":-1</v>
       </c>
       <c r="U29" t="str">
         <f t="shared" si="11"/>
-        <v>{"art":"ski","typ":"set","alter":"jugendliche","farbe":"aktion","kategorie":"","tage_1":-1,"tage_2":-1,"tage_7":-1,"tage_14":-1</v>
+        <v>{"art":"ski","typ":"set","alter":"jugendlicher","farbe":"aktion","kategorie":"","tage_1":-1,"tage_2":-1,"tage_7":-1,"tage_14":-1</v>
       </c>
       <c r="V29" t="str">
         <f t="shared" si="12"/>
-        <v>{"art":"ski","typ":"set","alter":"jugendliche","farbe":"aktion","kategorie":"","tage_1":-1,"tage_2":-1,"tage_7":-1,"tage_14":-1,"tage_100":155</v>
+        <v>{"art":"ski","typ":"set","alter":"jugendlicher","farbe":"aktion","kategorie":"","tage_1":-1,"tage_2":-1,"tage_7":-1,"tage_14":-1,"tage_100":155</v>
       </c>
       <c r="W29" t="str">
         <f t="shared" si="13"/>
-        <v>{"art":"ski","typ":"set","alter":"jugendliche","farbe":"aktion","kategorie":"","tage_1":-1,"tage_2":-1,"tage_7":-1,"tage_14":-1,"tage_100":155,"tage_100_ab":false},</v>
+        <v>{"art":"ski","typ":"set","alter":"jugendlicher","farbe":"aktion","kategorie":"","tage_1":-1,"tage_2":-1,"tage_7":-1,"tage_14":-1,"tage_100":155,"tage_100_ab":false},</v>
       </c>
     </row>
-    <row r="30" spans="1:23">
+    <row r="30" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
         <v>1</v>
       </c>
@@ -5214,7 +5226,7 @@
         <v>10</v>
       </c>
       <c r="C30" t="s">
-        <v>43</v>
+        <v>52</v>
       </c>
       <c r="D30" t="s">
         <v>6</v>
@@ -5248,42 +5260,42 @@
       </c>
       <c r="O30" t="str">
         <f t="shared" si="5"/>
-        <v>{"art":"ski","typ":"set","alter":"jugendliche"</v>
+        <v>{"art":"ski","typ":"set","alter":"jugendlicher"</v>
       </c>
       <c r="P30" t="str">
         <f t="shared" si="6"/>
-        <v>{"art":"ski","typ":"set","alter":"jugendliche","farbe":"blau"</v>
+        <v>{"art":"ski","typ":"set","alter":"jugendlicher","farbe":"blau"</v>
       </c>
       <c r="Q30" t="str">
         <f t="shared" si="7"/>
-        <v>{"art":"ski","typ":"set","alter":"jugendliche","farbe":"blau","kategorie":""</v>
+        <v>{"art":"ski","typ":"set","alter":"jugendlicher","farbe":"blau","kategorie":""</v>
       </c>
       <c r="R30" t="str">
         <f t="shared" si="8"/>
-        <v>{"art":"ski","typ":"set","alter":"jugendliche","farbe":"blau","kategorie":"","tage_1":30</v>
+        <v>{"art":"ski","typ":"set","alter":"jugendlicher","farbe":"blau","kategorie":"","tage_1":30</v>
       </c>
       <c r="S30" t="str">
         <f t="shared" si="9"/>
-        <v>{"art":"ski","typ":"set","alter":"jugendliche","farbe":"blau","kategorie":"","tage_1":30,"tage_2":40</v>
+        <v>{"art":"ski","typ":"set","alter":"jugendlicher","farbe":"blau","kategorie":"","tage_1":30,"tage_2":40</v>
       </c>
       <c r="T30" t="str">
         <f t="shared" si="10"/>
-        <v>{"art":"ski","typ":"set","alter":"jugendliche","farbe":"blau","kategorie":"","tage_1":30,"tage_2":40,"tage_7":85</v>
+        <v>{"art":"ski","typ":"set","alter":"jugendlicher","farbe":"blau","kategorie":"","tage_1":30,"tage_2":40,"tage_7":85</v>
       </c>
       <c r="U30" t="str">
         <f t="shared" si="11"/>
-        <v>{"art":"ski","typ":"set","alter":"jugendliche","farbe":"blau","kategorie":"","tage_1":30,"tage_2":40,"tage_7":85,"tage_14":125</v>
+        <v>{"art":"ski","typ":"set","alter":"jugendlicher","farbe":"blau","kategorie":"","tage_1":30,"tage_2":40,"tage_7":85,"tage_14":125</v>
       </c>
       <c r="V30" t="str">
         <f t="shared" si="12"/>
-        <v>{"art":"ski","typ":"set","alter":"jugendliche","farbe":"blau","kategorie":"","tage_1":30,"tage_2":40,"tage_7":85,"tage_14":125,"tage_100":190</v>
+        <v>{"art":"ski","typ":"set","alter":"jugendlicher","farbe":"blau","kategorie":"","tage_1":30,"tage_2":40,"tage_7":85,"tage_14":125,"tage_100":190</v>
       </c>
       <c r="W30" t="str">
         <f t="shared" si="13"/>
-        <v>{"art":"ski","typ":"set","alter":"jugendliche","farbe":"blau","kategorie":"","tage_1":30,"tage_2":40,"tage_7":85,"tage_14":125,"tage_100":190,"tage_100_ab":false},</v>
+        <v>{"art":"ski","typ":"set","alter":"jugendlicher","farbe":"blau","kategorie":"","tage_1":30,"tage_2":40,"tage_7":85,"tage_14":125,"tage_100":190,"tage_100_ab":false},</v>
       </c>
     </row>
-    <row r="31" spans="1:23">
+    <row r="31" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
         <v>1</v>
       </c>
@@ -5291,7 +5303,7 @@
         <v>10</v>
       </c>
       <c r="C31" t="s">
-        <v>43</v>
+        <v>52</v>
       </c>
       <c r="D31" t="s">
         <v>39</v>
@@ -5325,42 +5337,42 @@
       </c>
       <c r="O31" t="str">
         <f t="shared" si="5"/>
-        <v>{"art":"ski","typ":"set","alter":"jugendliche"</v>
+        <v>{"art":"ski","typ":"set","alter":"jugendlicher"</v>
       </c>
       <c r="P31" t="str">
         <f t="shared" si="6"/>
-        <v>{"art":"ski","typ":"set","alter":"jugendliche","farbe":"rot"</v>
+        <v>{"art":"ski","typ":"set","alter":"jugendlicher","farbe":"rot"</v>
       </c>
       <c r="Q31" t="str">
         <f t="shared" si="7"/>
-        <v>{"art":"ski","typ":"set","alter":"jugendliche","farbe":"rot","kategorie":""</v>
+        <v>{"art":"ski","typ":"set","alter":"jugendlicher","farbe":"rot","kategorie":""</v>
       </c>
       <c r="R31" t="str">
         <f t="shared" si="8"/>
-        <v>{"art":"ski","typ":"set","alter":"jugendliche","farbe":"rot","kategorie":"","tage_1":35</v>
+        <v>{"art":"ski","typ":"set","alter":"jugendlicher","farbe":"rot","kategorie":"","tage_1":35</v>
       </c>
       <c r="S31" t="str">
         <f t="shared" si="9"/>
-        <v>{"art":"ski","typ":"set","alter":"jugendliche","farbe":"rot","kategorie":"","tage_1":35,"tage_2":50</v>
+        <v>{"art":"ski","typ":"set","alter":"jugendlicher","farbe":"rot","kategorie":"","tage_1":35,"tage_2":50</v>
       </c>
       <c r="T31" t="str">
         <f t="shared" si="10"/>
-        <v>{"art":"ski","typ":"set","alter":"jugendliche","farbe":"rot","kategorie":"","tage_1":35,"tage_2":50,"tage_7":105</v>
+        <v>{"art":"ski","typ":"set","alter":"jugendlicher","farbe":"rot","kategorie":"","tage_1":35,"tage_2":50,"tage_7":105</v>
       </c>
       <c r="U31" t="str">
         <f t="shared" si="11"/>
-        <v>{"art":"ski","typ":"set","alter":"jugendliche","farbe":"rot","kategorie":"","tage_1":35,"tage_2":50,"tage_7":105,"tage_14":150</v>
+        <v>{"art":"ski","typ":"set","alter":"jugendlicher","farbe":"rot","kategorie":"","tage_1":35,"tage_2":50,"tage_7":105,"tage_14":150</v>
       </c>
       <c r="V31" t="str">
         <f t="shared" si="12"/>
-        <v>{"art":"ski","typ":"set","alter":"jugendliche","farbe":"rot","kategorie":"","tage_1":35,"tage_2":50,"tage_7":105,"tage_14":150,"tage_100":245</v>
+        <v>{"art":"ski","typ":"set","alter":"jugendlicher","farbe":"rot","kategorie":"","tage_1":35,"tage_2":50,"tage_7":105,"tage_14":150,"tage_100":245</v>
       </c>
       <c r="W31" t="str">
         <f t="shared" si="13"/>
-        <v>{"art":"ski","typ":"set","alter":"jugendliche","farbe":"rot","kategorie":"","tage_1":35,"tage_2":50,"tage_7":105,"tage_14":150,"tage_100":245,"tage_100_ab":false},</v>
+        <v>{"art":"ski","typ":"set","alter":"jugendlicher","farbe":"rot","kategorie":"","tage_1":35,"tage_2":50,"tage_7":105,"tage_14":150,"tage_100":245,"tage_100_ab":false},</v>
       </c>
     </row>
-    <row r="32" spans="1:23">
+    <row r="32" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
         <v>1</v>
       </c>
@@ -5368,7 +5380,7 @@
         <v>10</v>
       </c>
       <c r="C32" t="s">
-        <v>43</v>
+        <v>52</v>
       </c>
       <c r="D32" t="s">
         <v>40</v>
@@ -5405,42 +5417,42 @@
       </c>
       <c r="O32" t="str">
         <f t="shared" si="5"/>
-        <v>{"art":"ski","typ":"set","alter":"jugendliche"</v>
+        <v>{"art":"ski","typ":"set","alter":"jugendlicher"</v>
       </c>
       <c r="P32" t="str">
         <f t="shared" si="6"/>
-        <v>{"art":"ski","typ":"set","alter":"jugendliche","farbe":"schwarz"</v>
+        <v>{"art":"ski","typ":"set","alter":"jugendlicher","farbe":"schwarz"</v>
       </c>
       <c r="Q32" t="str">
         <f t="shared" si="7"/>
-        <v>{"art":"ski","typ":"set","alter":"jugendliche","farbe":"schwarz","kategorie":""</v>
+        <v>{"art":"ski","typ":"set","alter":"jugendlicher","farbe":"schwarz","kategorie":""</v>
       </c>
       <c r="R32" t="str">
         <f t="shared" si="8"/>
-        <v>{"art":"ski","typ":"set","alter":"jugendliche","farbe":"schwarz","kategorie":"","tage_1":45</v>
+        <v>{"art":"ski","typ":"set","alter":"jugendlicher","farbe":"schwarz","kategorie":"","tage_1":45</v>
       </c>
       <c r="S32" t="str">
         <f t="shared" si="9"/>
-        <v>{"art":"ski","typ":"set","alter":"jugendliche","farbe":"schwarz","kategorie":"","tage_1":45,"tage_2":60</v>
+        <v>{"art":"ski","typ":"set","alter":"jugendlicher","farbe":"schwarz","kategorie":"","tage_1":45,"tage_2":60</v>
       </c>
       <c r="T32" t="str">
         <f t="shared" si="10"/>
-        <v>{"art":"ski","typ":"set","alter":"jugendliche","farbe":"schwarz","kategorie":"","tage_1":45,"tage_2":60,"tage_7":125</v>
+        <v>{"art":"ski","typ":"set","alter":"jugendlicher","farbe":"schwarz","kategorie":"","tage_1":45,"tage_2":60,"tage_7":125</v>
       </c>
       <c r="U32" t="str">
         <f t="shared" si="11"/>
-        <v>{"art":"ski","typ":"set","alter":"jugendliche","farbe":"schwarz","kategorie":"","tage_1":45,"tage_2":60,"tage_7":125,"tage_14":185</v>
+        <v>{"art":"ski","typ":"set","alter":"jugendlicher","farbe":"schwarz","kategorie":"","tage_1":45,"tage_2":60,"tage_7":125,"tage_14":185</v>
       </c>
       <c r="V32" t="str">
         <f t="shared" si="12"/>
-        <v>{"art":"ski","typ":"set","alter":"jugendliche","farbe":"schwarz","kategorie":"","tage_1":45,"tage_2":60,"tage_7":125,"tage_14":185,"tage_100":280</v>
+        <v>{"art":"ski","typ":"set","alter":"jugendlicher","farbe":"schwarz","kategorie":"","tage_1":45,"tage_2":60,"tage_7":125,"tage_14":185,"tage_100":280</v>
       </c>
       <c r="W32" t="str">
         <f t="shared" si="13"/>
-        <v>{"art":"ski","typ":"set","alter":"jugendliche","farbe":"schwarz","kategorie":"","tage_1":45,"tage_2":60,"tage_7":125,"tage_14":185,"tage_100":280,"tage_100_ab":true},</v>
+        <v>{"art":"ski","typ":"set","alter":"jugendlicher","farbe":"schwarz","kategorie":"","tage_1":45,"tage_2":60,"tage_7":125,"tage_14":185,"tage_100":280,"tage_100_ab":true},</v>
       </c>
     </row>
-    <row r="33" spans="1:23">
+    <row r="33" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
         <v>1</v>
       </c>
@@ -5448,10 +5460,10 @@
         <v>1</v>
       </c>
       <c r="C33" t="s">
-        <v>43</v>
+        <v>52</v>
       </c>
       <c r="D33" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="F33">
         <v>-1</v>
@@ -5482,42 +5494,42 @@
       </c>
       <c r="O33" t="str">
         <f t="shared" si="5"/>
-        <v>{"art":"ski","typ":"ski","alter":"jugendliche"</v>
+        <v>{"art":"ski","typ":"ski","alter":"jugendlicher"</v>
       </c>
       <c r="P33" t="str">
         <f t="shared" si="6"/>
-        <v>{"art":"ski","typ":"ski","alter":"jugendliche","farbe":"aktion"</v>
+        <v>{"art":"ski","typ":"ski","alter":"jugendlicher","farbe":"aktion"</v>
       </c>
       <c r="Q33" t="str">
         <f t="shared" si="7"/>
-        <v>{"art":"ski","typ":"ski","alter":"jugendliche","farbe":"aktion","kategorie":""</v>
+        <v>{"art":"ski","typ":"ski","alter":"jugendlicher","farbe":"aktion","kategorie":""</v>
       </c>
       <c r="R33" t="str">
         <f t="shared" si="8"/>
-        <v>{"art":"ski","typ":"ski","alter":"jugendliche","farbe":"aktion","kategorie":"","tage_1":-1</v>
+        <v>{"art":"ski","typ":"ski","alter":"jugendlicher","farbe":"aktion","kategorie":"","tage_1":-1</v>
       </c>
       <c r="S33" t="str">
         <f t="shared" si="9"/>
-        <v>{"art":"ski","typ":"ski","alter":"jugendliche","farbe":"aktion","kategorie":"","tage_1":-1,"tage_2":-1</v>
+        <v>{"art":"ski","typ":"ski","alter":"jugendlicher","farbe":"aktion","kategorie":"","tage_1":-1,"tage_2":-1</v>
       </c>
       <c r="T33" t="str">
         <f t="shared" si="10"/>
-        <v>{"art":"ski","typ":"ski","alter":"jugendliche","farbe":"aktion","kategorie":"","tage_1":-1,"tage_2":-1,"tage_7":-1</v>
+        <v>{"art":"ski","typ":"ski","alter":"jugendlicher","farbe":"aktion","kategorie":"","tage_1":-1,"tage_2":-1,"tage_7":-1</v>
       </c>
       <c r="U33" t="str">
         <f t="shared" si="11"/>
-        <v>{"art":"ski","typ":"ski","alter":"jugendliche","farbe":"aktion","kategorie":"","tage_1":-1,"tage_2":-1,"tage_7":-1,"tage_14":-1</v>
+        <v>{"art":"ski","typ":"ski","alter":"jugendlicher","farbe":"aktion","kategorie":"","tage_1":-1,"tage_2":-1,"tage_7":-1,"tage_14":-1</v>
       </c>
       <c r="V33" t="str">
         <f t="shared" si="12"/>
-        <v>{"art":"ski","typ":"ski","alter":"jugendliche","farbe":"aktion","kategorie":"","tage_1":-1,"tage_2":-1,"tage_7":-1,"tage_14":-1,"tage_100":70</v>
+        <v>{"art":"ski","typ":"ski","alter":"jugendlicher","farbe":"aktion","kategorie":"","tage_1":-1,"tage_2":-1,"tage_7":-1,"tage_14":-1,"tage_100":70</v>
       </c>
       <c r="W33" t="str">
         <f t="shared" si="13"/>
-        <v>{"art":"ski","typ":"ski","alter":"jugendliche","farbe":"aktion","kategorie":"","tage_1":-1,"tage_2":-1,"tage_7":-1,"tage_14":-1,"tage_100":70,"tage_100_ab":false},</v>
+        <v>{"art":"ski","typ":"ski","alter":"jugendlicher","farbe":"aktion","kategorie":"","tage_1":-1,"tage_2":-1,"tage_7":-1,"tage_14":-1,"tage_100":70,"tage_100_ab":false},</v>
       </c>
     </row>
-    <row r="34" spans="1:23">
+    <row r="34" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
         <v>1</v>
       </c>
@@ -5525,7 +5537,7 @@
         <v>1</v>
       </c>
       <c r="C34" t="s">
-        <v>43</v>
+        <v>52</v>
       </c>
       <c r="D34" t="s">
         <v>6</v>
@@ -5559,42 +5571,42 @@
       </c>
       <c r="O34" t="str">
         <f t="shared" si="5"/>
-        <v>{"art":"ski","typ":"ski","alter":"jugendliche"</v>
+        <v>{"art":"ski","typ":"ski","alter":"jugendlicher"</v>
       </c>
       <c r="P34" t="str">
         <f t="shared" si="6"/>
-        <v>{"art":"ski","typ":"ski","alter":"jugendliche","farbe":"blau"</v>
+        <v>{"art":"ski","typ":"ski","alter":"jugendlicher","farbe":"blau"</v>
       </c>
       <c r="Q34" t="str">
         <f t="shared" si="7"/>
-        <v>{"art":"ski","typ":"ski","alter":"jugendliche","farbe":"blau","kategorie":""</v>
+        <v>{"art":"ski","typ":"ski","alter":"jugendlicher","farbe":"blau","kategorie":""</v>
       </c>
       <c r="R34" t="str">
         <f t="shared" si="8"/>
-        <v>{"art":"ski","typ":"ski","alter":"jugendliche","farbe":"blau","kategorie":"","tage_1":15</v>
+        <v>{"art":"ski","typ":"ski","alter":"jugendlicher","farbe":"blau","kategorie":"","tage_1":15</v>
       </c>
       <c r="S34" t="str">
         <f t="shared" si="9"/>
-        <v>{"art":"ski","typ":"ski","alter":"jugendliche","farbe":"blau","kategorie":"","tage_1":15,"tage_2":20</v>
+        <v>{"art":"ski","typ":"ski","alter":"jugendlicher","farbe":"blau","kategorie":"","tage_1":15,"tage_2":20</v>
       </c>
       <c r="T34" t="str">
         <f t="shared" si="10"/>
-        <v>{"art":"ski","typ":"ski","alter":"jugendliche","farbe":"blau","kategorie":"","tage_1":15,"tage_2":20,"tage_7":45</v>
+        <v>{"art":"ski","typ":"ski","alter":"jugendlicher","farbe":"blau","kategorie":"","tage_1":15,"tage_2":20,"tage_7":45</v>
       </c>
       <c r="U34" t="str">
         <f t="shared" si="11"/>
-        <v>{"art":"ski","typ":"ski","alter":"jugendliche","farbe":"blau","kategorie":"","tage_1":15,"tage_2":20,"tage_7":45,"tage_14":75</v>
+        <v>{"art":"ski","typ":"ski","alter":"jugendlicher","farbe":"blau","kategorie":"","tage_1":15,"tage_2":20,"tage_7":45,"tage_14":75</v>
       </c>
       <c r="V34" t="str">
         <f t="shared" si="12"/>
-        <v>{"art":"ski","typ":"ski","alter":"jugendliche","farbe":"blau","kategorie":"","tage_1":15,"tage_2":20,"tage_7":45,"tage_14":75,"tage_100":105</v>
+        <v>{"art":"ski","typ":"ski","alter":"jugendlicher","farbe":"blau","kategorie":"","tage_1":15,"tage_2":20,"tage_7":45,"tage_14":75,"tage_100":105</v>
       </c>
       <c r="W34" t="str">
         <f t="shared" si="13"/>
-        <v>{"art":"ski","typ":"ski","alter":"jugendliche","farbe":"blau","kategorie":"","tage_1":15,"tage_2":20,"tage_7":45,"tage_14":75,"tage_100":105,"tage_100_ab":false},</v>
+        <v>{"art":"ski","typ":"ski","alter":"jugendlicher","farbe":"blau","kategorie":"","tage_1":15,"tage_2":20,"tage_7":45,"tage_14":75,"tage_100":105,"tage_100_ab":false},</v>
       </c>
     </row>
-    <row r="35" spans="1:23">
+    <row r="35" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
         <v>1</v>
       </c>
@@ -5602,7 +5614,7 @@
         <v>1</v>
       </c>
       <c r="C35" t="s">
-        <v>43</v>
+        <v>52</v>
       </c>
       <c r="D35" t="s">
         <v>39</v>
@@ -5636,42 +5648,42 @@
       </c>
       <c r="O35" t="str">
         <f t="shared" si="5"/>
-        <v>{"art":"ski","typ":"ski","alter":"jugendliche"</v>
+        <v>{"art":"ski","typ":"ski","alter":"jugendlicher"</v>
       </c>
       <c r="P35" t="str">
         <f t="shared" si="6"/>
-        <v>{"art":"ski","typ":"ski","alter":"jugendliche","farbe":"rot"</v>
+        <v>{"art":"ski","typ":"ski","alter":"jugendlicher","farbe":"rot"</v>
       </c>
       <c r="Q35" t="str">
         <f t="shared" si="7"/>
-        <v>{"art":"ski","typ":"ski","alter":"jugendliche","farbe":"rot","kategorie":""</v>
+        <v>{"art":"ski","typ":"ski","alter":"jugendlicher","farbe":"rot","kategorie":""</v>
       </c>
       <c r="R35" t="str">
         <f t="shared" si="8"/>
-        <v>{"art":"ski","typ":"ski","alter":"jugendliche","farbe":"rot","kategorie":"","tage_1":15</v>
+        <v>{"art":"ski","typ":"ski","alter":"jugendlicher","farbe":"rot","kategorie":"","tage_1":15</v>
       </c>
       <c r="S35" t="str">
         <f t="shared" si="9"/>
-        <v>{"art":"ski","typ":"ski","alter":"jugendliche","farbe":"rot","kategorie":"","tage_1":15,"tage_2":25</v>
+        <v>{"art":"ski","typ":"ski","alter":"jugendlicher","farbe":"rot","kategorie":"","tage_1":15,"tage_2":25</v>
       </c>
       <c r="T35" t="str">
         <f t="shared" si="10"/>
-        <v>{"art":"ski","typ":"ski","alter":"jugendliche","farbe":"rot","kategorie":"","tage_1":15,"tage_2":25,"tage_7":60</v>
+        <v>{"art":"ski","typ":"ski","alter":"jugendlicher","farbe":"rot","kategorie":"","tage_1":15,"tage_2":25,"tage_7":60</v>
       </c>
       <c r="U35" t="str">
         <f t="shared" si="11"/>
-        <v>{"art":"ski","typ":"ski","alter":"jugendliche","farbe":"rot","kategorie":"","tage_1":15,"tage_2":25,"tage_7":60,"tage_14":90</v>
+        <v>{"art":"ski","typ":"ski","alter":"jugendlicher","farbe":"rot","kategorie":"","tage_1":15,"tage_2":25,"tage_7":60,"tage_14":90</v>
       </c>
       <c r="V35" t="str">
         <f t="shared" si="12"/>
-        <v>{"art":"ski","typ":"ski","alter":"jugendliche","farbe":"rot","kategorie":"","tage_1":15,"tage_2":25,"tage_7":60,"tage_14":90,"tage_100":150</v>
+        <v>{"art":"ski","typ":"ski","alter":"jugendlicher","farbe":"rot","kategorie":"","tage_1":15,"tage_2":25,"tage_7":60,"tage_14":90,"tage_100":150</v>
       </c>
       <c r="W35" t="str">
         <f t="shared" si="13"/>
-        <v>{"art":"ski","typ":"ski","alter":"jugendliche","farbe":"rot","kategorie":"","tage_1":15,"tage_2":25,"tage_7":60,"tage_14":90,"tage_100":150,"tage_100_ab":false},</v>
+        <v>{"art":"ski","typ":"ski","alter":"jugendlicher","farbe":"rot","kategorie":"","tage_1":15,"tage_2":25,"tage_7":60,"tage_14":90,"tage_100":150,"tage_100_ab":false},</v>
       </c>
     </row>
-    <row r="36" spans="1:23">
+    <row r="36" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
         <v>1</v>
       </c>
@@ -5679,7 +5691,7 @@
         <v>1</v>
       </c>
       <c r="C36" t="s">
-        <v>43</v>
+        <v>52</v>
       </c>
       <c r="D36" t="s">
         <v>40</v>
@@ -5716,42 +5728,42 @@
       </c>
       <c r="O36" t="str">
         <f t="shared" si="5"/>
-        <v>{"art":"ski","typ":"ski","alter":"jugendliche"</v>
+        <v>{"art":"ski","typ":"ski","alter":"jugendlicher"</v>
       </c>
       <c r="P36" t="str">
         <f t="shared" si="6"/>
-        <v>{"art":"ski","typ":"ski","alter":"jugendliche","farbe":"schwarz"</v>
+        <v>{"art":"ski","typ":"ski","alter":"jugendlicher","farbe":"schwarz"</v>
       </c>
       <c r="Q36" t="str">
         <f t="shared" si="7"/>
-        <v>{"art":"ski","typ":"ski","alter":"jugendliche","farbe":"schwarz","kategorie":""</v>
+        <v>{"art":"ski","typ":"ski","alter":"jugendlicher","farbe":"schwarz","kategorie":""</v>
       </c>
       <c r="R36" t="str">
         <f t="shared" si="8"/>
-        <v>{"art":"ski","typ":"ski","alter":"jugendliche","farbe":"schwarz","kategorie":"","tage_1":20</v>
+        <v>{"art":"ski","typ":"ski","alter":"jugendlicher","farbe":"schwarz","kategorie":"","tage_1":20</v>
       </c>
       <c r="S36" t="str">
         <f t="shared" si="9"/>
-        <v>{"art":"ski","typ":"ski","alter":"jugendliche","farbe":"schwarz","kategorie":"","tage_1":20,"tage_2":30</v>
+        <v>{"art":"ski","typ":"ski","alter":"jugendlicher","farbe":"schwarz","kategorie":"","tage_1":20,"tage_2":30</v>
       </c>
       <c r="T36" t="str">
         <f t="shared" si="10"/>
-        <v>{"art":"ski","typ":"ski","alter":"jugendliche","farbe":"schwarz","kategorie":"","tage_1":20,"tage_2":30,"tage_7":75</v>
+        <v>{"art":"ski","typ":"ski","alter":"jugendlicher","farbe":"schwarz","kategorie":"","tage_1":20,"tage_2":30,"tage_7":75</v>
       </c>
       <c r="U36" t="str">
         <f t="shared" si="11"/>
-        <v>{"art":"ski","typ":"ski","alter":"jugendliche","farbe":"schwarz","kategorie":"","tage_1":20,"tage_2":30,"tage_7":75,"tage_14":115</v>
+        <v>{"art":"ski","typ":"ski","alter":"jugendlicher","farbe":"schwarz","kategorie":"","tage_1":20,"tage_2":30,"tage_7":75,"tage_14":115</v>
       </c>
       <c r="V36" t="str">
         <f t="shared" si="12"/>
-        <v>{"art":"ski","typ":"ski","alter":"jugendliche","farbe":"schwarz","kategorie":"","tage_1":20,"tage_2":30,"tage_7":75,"tage_14":115,"tage_100":175</v>
+        <v>{"art":"ski","typ":"ski","alter":"jugendlicher","farbe":"schwarz","kategorie":"","tage_1":20,"tage_2":30,"tage_7":75,"tage_14":115,"tage_100":175</v>
       </c>
       <c r="W36" t="str">
         <f t="shared" si="13"/>
-        <v>{"art":"ski","typ":"ski","alter":"jugendliche","farbe":"schwarz","kategorie":"","tage_1":20,"tage_2":30,"tage_7":75,"tage_14":115,"tage_100":175,"tage_100_ab":true},</v>
+        <v>{"art":"ski","typ":"ski","alter":"jugendlicher","farbe":"schwarz","kategorie":"","tage_1":20,"tage_2":30,"tage_7":75,"tage_14":115,"tage_100":175,"tage_100_ab":true},</v>
       </c>
     </row>
-    <row r="37" spans="1:23">
+    <row r="37" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
         <v>1</v>
       </c>
@@ -5759,10 +5771,10 @@
         <v>38</v>
       </c>
       <c r="C37" t="s">
-        <v>43</v>
+        <v>52</v>
       </c>
       <c r="D37" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="F37">
         <v>-1</v>
@@ -5793,42 +5805,42 @@
       </c>
       <c r="O37" t="str">
         <f t="shared" si="5"/>
-        <v>{"art":"ski","typ":"schuhe","alter":"jugendliche"</v>
+        <v>{"art":"ski","typ":"schuhe","alter":"jugendlicher"</v>
       </c>
       <c r="P37" t="str">
         <f t="shared" si="6"/>
-        <v>{"art":"ski","typ":"schuhe","alter":"jugendliche","farbe":"aktion"</v>
+        <v>{"art":"ski","typ":"schuhe","alter":"jugendlicher","farbe":"aktion"</v>
       </c>
       <c r="Q37" t="str">
         <f t="shared" si="7"/>
-        <v>{"art":"ski","typ":"schuhe","alter":"jugendliche","farbe":"aktion","kategorie":""</v>
+        <v>{"art":"ski","typ":"schuhe","alter":"jugendlicher","farbe":"aktion","kategorie":""</v>
       </c>
       <c r="R37" t="str">
         <f t="shared" si="8"/>
-        <v>{"art":"ski","typ":"schuhe","alter":"jugendliche","farbe":"aktion","kategorie":"","tage_1":-1</v>
+        <v>{"art":"ski","typ":"schuhe","alter":"jugendlicher","farbe":"aktion","kategorie":"","tage_1":-1</v>
       </c>
       <c r="S37" t="str">
         <f t="shared" si="9"/>
-        <v>{"art":"ski","typ":"schuhe","alter":"jugendliche","farbe":"aktion","kategorie":"","tage_1":-1,"tage_2":-1</v>
+        <v>{"art":"ski","typ":"schuhe","alter":"jugendlicher","farbe":"aktion","kategorie":"","tage_1":-1,"tage_2":-1</v>
       </c>
       <c r="T37" t="str">
         <f t="shared" si="10"/>
-        <v>{"art":"ski","typ":"schuhe","alter":"jugendliche","farbe":"aktion","kategorie":"","tage_1":-1,"tage_2":-1,"tage_7":-1</v>
+        <v>{"art":"ski","typ":"schuhe","alter":"jugendlicher","farbe":"aktion","kategorie":"","tage_1":-1,"tage_2":-1,"tage_7":-1</v>
       </c>
       <c r="U37" t="str">
         <f t="shared" si="11"/>
-        <v>{"art":"ski","typ":"schuhe","alter":"jugendliche","farbe":"aktion","kategorie":"","tage_1":-1,"tage_2":-1,"tage_7":-1,"tage_14":-1</v>
+        <v>{"art":"ski","typ":"schuhe","alter":"jugendlicher","farbe":"aktion","kategorie":"","tage_1":-1,"tage_2":-1,"tage_7":-1,"tage_14":-1</v>
       </c>
       <c r="V37" t="str">
         <f t="shared" si="12"/>
-        <v>{"art":"ski","typ":"schuhe","alter":"jugendliche","farbe":"aktion","kategorie":"","tage_1":-1,"tage_2":-1,"tage_7":-1,"tage_14":-1,"tage_100":-1</v>
+        <v>{"art":"ski","typ":"schuhe","alter":"jugendlicher","farbe":"aktion","kategorie":"","tage_1":-1,"tage_2":-1,"tage_7":-1,"tage_14":-1,"tage_100":-1</v>
       </c>
       <c r="W37" t="str">
         <f t="shared" si="13"/>
-        <v>{"art":"ski","typ":"schuhe","alter":"jugendliche","farbe":"aktion","kategorie":"","tage_1":-1,"tage_2":-1,"tage_7":-1,"tage_14":-1,"tage_100":-1,"tage_100_ab":false},</v>
+        <v>{"art":"ski","typ":"schuhe","alter":"jugendlicher","farbe":"aktion","kategorie":"","tage_1":-1,"tage_2":-1,"tage_7":-1,"tage_14":-1,"tage_100":-1,"tage_100_ab":false},</v>
       </c>
     </row>
-    <row r="38" spans="1:23">
+    <row r="38" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
         <v>1</v>
       </c>
@@ -5836,7 +5848,7 @@
         <v>38</v>
       </c>
       <c r="C38" t="s">
-        <v>43</v>
+        <v>52</v>
       </c>
       <c r="D38" t="s">
         <v>6</v>
@@ -5870,42 +5882,42 @@
       </c>
       <c r="O38" t="str">
         <f t="shared" si="5"/>
-        <v>{"art":"ski","typ":"schuhe","alter":"jugendliche"</v>
+        <v>{"art":"ski","typ":"schuhe","alter":"jugendlicher"</v>
       </c>
       <c r="P38" t="str">
         <f t="shared" si="6"/>
-        <v>{"art":"ski","typ":"schuhe","alter":"jugendliche","farbe":"blau"</v>
+        <v>{"art":"ski","typ":"schuhe","alter":"jugendlicher","farbe":"blau"</v>
       </c>
       <c r="Q38" t="str">
         <f t="shared" si="7"/>
-        <v>{"art":"ski","typ":"schuhe","alter":"jugendliche","farbe":"blau","kategorie":""</v>
+        <v>{"art":"ski","typ":"schuhe","alter":"jugendlicher","farbe":"blau","kategorie":""</v>
       </c>
       <c r="R38" t="str">
         <f t="shared" si="8"/>
-        <v>{"art":"ski","typ":"schuhe","alter":"jugendliche","farbe":"blau","kategorie":"","tage_1":10</v>
+        <v>{"art":"ski","typ":"schuhe","alter":"jugendlicher","farbe":"blau","kategorie":"","tage_1":10</v>
       </c>
       <c r="S38" t="str">
         <f t="shared" si="9"/>
-        <v>{"art":"ski","typ":"schuhe","alter":"jugendliche","farbe":"blau","kategorie":"","tage_1":10,"tage_2":15</v>
+        <v>{"art":"ski","typ":"schuhe","alter":"jugendlicher","farbe":"blau","kategorie":"","tage_1":10,"tage_2":15</v>
       </c>
       <c r="T38" t="str">
         <f t="shared" si="10"/>
-        <v>{"art":"ski","typ":"schuhe","alter":"jugendliche","farbe":"blau","kategorie":"","tage_1":10,"tage_2":15,"tage_7":35</v>
+        <v>{"art":"ski","typ":"schuhe","alter":"jugendlicher","farbe":"blau","kategorie":"","tage_1":10,"tage_2":15,"tage_7":35</v>
       </c>
       <c r="U38" t="str">
         <f t="shared" si="11"/>
-        <v>{"art":"ski","typ":"schuhe","alter":"jugendliche","farbe":"blau","kategorie":"","tage_1":10,"tage_2":15,"tage_7":35,"tage_14":45</v>
+        <v>{"art":"ski","typ":"schuhe","alter":"jugendlicher","farbe":"blau","kategorie":"","tage_1":10,"tage_2":15,"tage_7":35,"tage_14":45</v>
       </c>
       <c r="V38" t="str">
         <f t="shared" si="12"/>
-        <v>{"art":"ski","typ":"schuhe","alter":"jugendliche","farbe":"blau","kategorie":"","tage_1":10,"tage_2":15,"tage_7":35,"tage_14":45,"tage_100":75</v>
+        <v>{"art":"ski","typ":"schuhe","alter":"jugendlicher","farbe":"blau","kategorie":"","tage_1":10,"tage_2":15,"tage_7":35,"tage_14":45,"tage_100":75</v>
       </c>
       <c r="W38" t="str">
         <f t="shared" si="13"/>
-        <v>{"art":"ski","typ":"schuhe","alter":"jugendliche","farbe":"blau","kategorie":"","tage_1":10,"tage_2":15,"tage_7":35,"tage_14":45,"tage_100":75,"tage_100_ab":false},</v>
+        <v>{"art":"ski","typ":"schuhe","alter":"jugendlicher","farbe":"blau","kategorie":"","tage_1":10,"tage_2":15,"tage_7":35,"tage_14":45,"tage_100":75,"tage_100_ab":false},</v>
       </c>
     </row>
-    <row r="39" spans="1:23">
+    <row r="39" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
         <v>1</v>
       </c>
@@ -5913,7 +5925,7 @@
         <v>38</v>
       </c>
       <c r="C39" t="s">
-        <v>43</v>
+        <v>52</v>
       </c>
       <c r="D39" t="s">
         <v>39</v>
@@ -5947,42 +5959,42 @@
       </c>
       <c r="O39" t="str">
         <f t="shared" si="5"/>
-        <v>{"art":"ski","typ":"schuhe","alter":"jugendliche"</v>
+        <v>{"art":"ski","typ":"schuhe","alter":"jugendlicher"</v>
       </c>
       <c r="P39" t="str">
         <f t="shared" si="6"/>
-        <v>{"art":"ski","typ":"schuhe","alter":"jugendliche","farbe":"rot"</v>
+        <v>{"art":"ski","typ":"schuhe","alter":"jugendlicher","farbe":"rot"</v>
       </c>
       <c r="Q39" t="str">
         <f t="shared" si="7"/>
-        <v>{"art":"ski","typ":"schuhe","alter":"jugendliche","farbe":"rot","kategorie":""</v>
+        <v>{"art":"ski","typ":"schuhe","alter":"jugendlicher","farbe":"rot","kategorie":""</v>
       </c>
       <c r="R39" t="str">
         <f t="shared" si="8"/>
-        <v>{"art":"ski","typ":"schuhe","alter":"jugendliche","farbe":"rot","kategorie":"","tage_1":15</v>
+        <v>{"art":"ski","typ":"schuhe","alter":"jugendlicher","farbe":"rot","kategorie":"","tage_1":15</v>
       </c>
       <c r="S39" t="str">
         <f t="shared" si="9"/>
-        <v>{"art":"ski","typ":"schuhe","alter":"jugendliche","farbe":"rot","kategorie":"","tage_1":15,"tage_2":20</v>
+        <v>{"art":"ski","typ":"schuhe","alter":"jugendlicher","farbe":"rot","kategorie":"","tage_1":15,"tage_2":20</v>
       </c>
       <c r="T39" t="str">
         <f t="shared" si="10"/>
-        <v>{"art":"ski","typ":"schuhe","alter":"jugendliche","farbe":"rot","kategorie":"","tage_1":15,"tage_2":20,"tage_7":40</v>
+        <v>{"art":"ski","typ":"schuhe","alter":"jugendlicher","farbe":"rot","kategorie":"","tage_1":15,"tage_2":20,"tage_7":40</v>
       </c>
       <c r="U39" t="str">
         <f t="shared" si="11"/>
-        <v>{"art":"ski","typ":"schuhe","alter":"jugendliche","farbe":"rot","kategorie":"","tage_1":15,"tage_2":20,"tage_7":40,"tage_14":55</v>
+        <v>{"art":"ski","typ":"schuhe","alter":"jugendlicher","farbe":"rot","kategorie":"","tage_1":15,"tage_2":20,"tage_7":40,"tage_14":55</v>
       </c>
       <c r="V39" t="str">
         <f t="shared" si="12"/>
-        <v>{"art":"ski","typ":"schuhe","alter":"jugendliche","farbe":"rot","kategorie":"","tage_1":15,"tage_2":20,"tage_7":40,"tage_14":55,"tage_100":85</v>
+        <v>{"art":"ski","typ":"schuhe","alter":"jugendlicher","farbe":"rot","kategorie":"","tage_1":15,"tage_2":20,"tage_7":40,"tage_14":55,"tage_100":85</v>
       </c>
       <c r="W39" t="str">
         <f t="shared" si="13"/>
-        <v>{"art":"ski","typ":"schuhe","alter":"jugendliche","farbe":"rot","kategorie":"","tage_1":15,"tage_2":20,"tage_7":40,"tage_14":55,"tage_100":85,"tage_100_ab":false},</v>
+        <v>{"art":"ski","typ":"schuhe","alter":"jugendlicher","farbe":"rot","kategorie":"","tage_1":15,"tage_2":20,"tage_7":40,"tage_14":55,"tage_100":85,"tage_100_ab":false},</v>
       </c>
     </row>
-    <row r="40" spans="1:23">
+    <row r="40" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
         <v>1</v>
       </c>
@@ -5990,7 +6002,7 @@
         <v>38</v>
       </c>
       <c r="C40" t="s">
-        <v>43</v>
+        <v>52</v>
       </c>
       <c r="D40" t="s">
         <v>40</v>
@@ -6027,42 +6039,42 @@
       </c>
       <c r="O40" t="str">
         <f t="shared" si="5"/>
-        <v>{"art":"ski","typ":"schuhe","alter":"jugendliche"</v>
+        <v>{"art":"ski","typ":"schuhe","alter":"jugendlicher"</v>
       </c>
       <c r="P40" t="str">
         <f t="shared" si="6"/>
-        <v>{"art":"ski","typ":"schuhe","alter":"jugendliche","farbe":"schwarz"</v>
+        <v>{"art":"ski","typ":"schuhe","alter":"jugendlicher","farbe":"schwarz"</v>
       </c>
       <c r="Q40" t="str">
         <f t="shared" si="7"/>
-        <v>{"art":"ski","typ":"schuhe","alter":"jugendliche","farbe":"schwarz","kategorie":""</v>
+        <v>{"art":"ski","typ":"schuhe","alter":"jugendlicher","farbe":"schwarz","kategorie":""</v>
       </c>
       <c r="R40" t="str">
         <f t="shared" si="8"/>
-        <v>{"art":"ski","typ":"schuhe","alter":"jugendliche","farbe":"schwarz","kategorie":"","tage_1":20</v>
+        <v>{"art":"ski","typ":"schuhe","alter":"jugendlicher","farbe":"schwarz","kategorie":"","tage_1":20</v>
       </c>
       <c r="S40" t="str">
         <f t="shared" si="9"/>
-        <v>{"art":"ski","typ":"schuhe","alter":"jugendliche","farbe":"schwarz","kategorie":"","tage_1":20,"tage_2":25</v>
+        <v>{"art":"ski","typ":"schuhe","alter":"jugendlicher","farbe":"schwarz","kategorie":"","tage_1":20,"tage_2":25</v>
       </c>
       <c r="T40" t="str">
         <f t="shared" si="10"/>
-        <v>{"art":"ski","typ":"schuhe","alter":"jugendliche","farbe":"schwarz","kategorie":"","tage_1":20,"tage_2":25,"tage_7":45</v>
+        <v>{"art":"ski","typ":"schuhe","alter":"jugendlicher","farbe":"schwarz","kategorie":"","tage_1":20,"tage_2":25,"tage_7":45</v>
       </c>
       <c r="U40" t="str">
         <f t="shared" si="11"/>
-        <v>{"art":"ski","typ":"schuhe","alter":"jugendliche","farbe":"schwarz","kategorie":"","tage_1":20,"tage_2":25,"tage_7":45,"tage_14":65</v>
+        <v>{"art":"ski","typ":"schuhe","alter":"jugendlicher","farbe":"schwarz","kategorie":"","tage_1":20,"tage_2":25,"tage_7":45,"tage_14":65</v>
       </c>
       <c r="V40" t="str">
         <f t="shared" si="12"/>
-        <v>{"art":"ski","typ":"schuhe","alter":"jugendliche","farbe":"schwarz","kategorie":"","tage_1":20,"tage_2":25,"tage_7":45,"tage_14":65,"tage_100":95</v>
+        <v>{"art":"ski","typ":"schuhe","alter":"jugendlicher","farbe":"schwarz","kategorie":"","tage_1":20,"tage_2":25,"tage_7":45,"tage_14":65,"tage_100":95</v>
       </c>
       <c r="W40" t="str">
         <f t="shared" si="13"/>
-        <v>{"art":"ski","typ":"schuhe","alter":"jugendliche","farbe":"schwarz","kategorie":"","tage_1":20,"tage_2":25,"tage_7":45,"tage_14":65,"tage_100":95,"tage_100_ab":true},</v>
+        <v>{"art":"ski","typ":"schuhe","alter":"jugendlicher","farbe":"schwarz","kategorie":"","tage_1":20,"tage_2":25,"tage_7":45,"tage_14":65,"tage_100":95,"tage_100_ab":true},</v>
       </c>
     </row>
-    <row r="41" spans="1:23">
+    <row r="41" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
         <v>1</v>
       </c>
@@ -6070,7 +6082,7 @@
         <v>41</v>
       </c>
       <c r="C41" t="s">
-        <v>43</v>
+        <v>52</v>
       </c>
       <c r="D41" t="s">
         <v>42</v>
@@ -6104,42 +6116,42 @@
       </c>
       <c r="O41" t="str">
         <f t="shared" si="5"/>
-        <v>{"art":"ski","typ":"stock","alter":"jugendliche"</v>
+        <v>{"art":"ski","typ":"stock","alter":"jugendlicher"</v>
       </c>
       <c r="P41" t="str">
         <f t="shared" si="6"/>
-        <v>{"art":"ski","typ":"stock","alter":"jugendliche","farbe":"*"</v>
+        <v>{"art":"ski","typ":"stock","alter":"jugendlicher","farbe":"*"</v>
       </c>
       <c r="Q41" t="str">
         <f t="shared" si="7"/>
-        <v>{"art":"ski","typ":"stock","alter":"jugendliche","farbe":"*","kategorie":""</v>
+        <v>{"art":"ski","typ":"stock","alter":"jugendlicher","farbe":"*","kategorie":""</v>
       </c>
       <c r="R41" t="str">
         <f t="shared" si="8"/>
-        <v>{"art":"ski","typ":"stock","alter":"jugendliche","farbe":"*","kategorie":"","tage_1":5</v>
+        <v>{"art":"ski","typ":"stock","alter":"jugendlicher","farbe":"*","kategorie":"","tage_1":5</v>
       </c>
       <c r="S41" t="str">
         <f t="shared" si="9"/>
-        <v>{"art":"ski","typ":"stock","alter":"jugendliche","farbe":"*","kategorie":"","tage_1":5,"tage_2":5</v>
+        <v>{"art":"ski","typ":"stock","alter":"jugendlicher","farbe":"*","kategorie":"","tage_1":5,"tage_2":5</v>
       </c>
       <c r="T41" t="str">
         <f t="shared" si="10"/>
-        <v>{"art":"ski","typ":"stock","alter":"jugendliche","farbe":"*","kategorie":"","tage_1":5,"tage_2":5,"tage_7":5</v>
+        <v>{"art":"ski","typ":"stock","alter":"jugendlicher","farbe":"*","kategorie":"","tage_1":5,"tage_2":5,"tage_7":5</v>
       </c>
       <c r="U41" t="str">
         <f t="shared" si="11"/>
-        <v>{"art":"ski","typ":"stock","alter":"jugendliche","farbe":"*","kategorie":"","tage_1":5,"tage_2":5,"tage_7":5,"tage_14":5</v>
+        <v>{"art":"ski","typ":"stock","alter":"jugendlicher","farbe":"*","kategorie":"","tage_1":5,"tage_2":5,"tage_7":5,"tage_14":5</v>
       </c>
       <c r="V41" t="str">
         <f t="shared" si="12"/>
-        <v>{"art":"ski","typ":"stock","alter":"jugendliche","farbe":"*","kategorie":"","tage_1":5,"tage_2":5,"tage_7":5,"tage_14":5,"tage_100":10</v>
+        <v>{"art":"ski","typ":"stock","alter":"jugendlicher","farbe":"*","kategorie":"","tage_1":5,"tage_2":5,"tage_7":5,"tage_14":5,"tage_100":10</v>
       </c>
       <c r="W41" t="str">
         <f t="shared" si="13"/>
-        <v>{"art":"ski","typ":"stock","alter":"jugendliche","farbe":"*","kategorie":"","tage_1":5,"tage_2":5,"tage_7":5,"tage_14":5,"tage_100":10,"tage_100_ab":false},</v>
+        <v>{"art":"ski","typ":"stock","alter":"jugendlicher","farbe":"*","kategorie":"","tage_1":5,"tage_2":5,"tage_7":5,"tage_14":5,"tage_100":10,"tage_100_ab":false},</v>
       </c>
     </row>
-    <row r="42" spans="1:23">
+    <row r="42" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
         <v>1</v>
       </c>
@@ -6147,10 +6159,10 @@
         <v>10</v>
       </c>
       <c r="C42" t="s">
+        <v>50</v>
+      </c>
+      <c r="D42" t="s">
         <v>51</v>
-      </c>
-      <c r="D42" t="s">
-        <v>52</v>
       </c>
       <c r="F42">
         <v>-1</v>
@@ -6216,7 +6228,7 @@
         <v>{"art":"ski","typ":"set","alter":"erwachsener","farbe":"aktion","kategorie":"","tage_1":-1,"tage_2":-1,"tage_7":-1,"tage_14":-1,"tage_100":240,"tage_100_ab":false},</v>
       </c>
     </row>
-    <row r="43" spans="1:23">
+    <row r="43" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
         <v>1</v>
       </c>
@@ -6224,7 +6236,7 @@
         <v>10</v>
       </c>
       <c r="C43" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D43" t="s">
         <v>6</v>
@@ -6293,7 +6305,7 @@
         <v>{"art":"ski","typ":"set","alter":"erwachsener","farbe":"blau","kategorie":"","tage_1":40,"tage_2":60,"tage_7":145,"tage_14":215,"tage_100":350,"tage_100_ab":false},</v>
       </c>
     </row>
-    <row r="44" spans="1:23">
+    <row r="44" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
         <v>1</v>
       </c>
@@ -6301,7 +6313,7 @@
         <v>10</v>
       </c>
       <c r="C44" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D44" t="s">
         <v>39</v>
@@ -6370,7 +6382,7 @@
         <v>{"art":"ski","typ":"set","alter":"erwachsener","farbe":"rot","kategorie":"","tage_1":50,"tage_2":75,"tage_7":195,"tage_14":285,"tage_100":425,"tage_100_ab":false},</v>
       </c>
     </row>
-    <row r="45" spans="1:23">
+    <row r="45" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
         <v>1</v>
       </c>
@@ -6378,7 +6390,7 @@
         <v>10</v>
       </c>
       <c r="C45" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D45" t="s">
         <v>40</v>
@@ -6450,7 +6462,7 @@
         <v>{"art":"ski","typ":"set","alter":"erwachsener","farbe":"schwarz","kategorie":"","tage_1":60,"tage_2":90,"tage_7":235,"tage_14":350,"tage_100":500,"tage_100_ab":true},</v>
       </c>
     </row>
-    <row r="46" spans="1:23">
+    <row r="46" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
         <v>1</v>
       </c>
@@ -6458,10 +6470,10 @@
         <v>1</v>
       </c>
       <c r="C46" t="s">
+        <v>50</v>
+      </c>
+      <c r="D46" t="s">
         <v>51</v>
-      </c>
-      <c r="D46" t="s">
-        <v>52</v>
       </c>
       <c r="F46">
         <v>-1</v>
@@ -6527,7 +6539,7 @@
         <v>{"art":"ski","typ":"ski","alter":"erwachsener","farbe":"aktion","kategorie":"","tage_1":-1,"tage_2":-1,"tage_7":-1,"tage_14":-1,"tage_100":140,"tage_100_ab":false},</v>
       </c>
     </row>
-    <row r="47" spans="1:23">
+    <row r="47" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
         <v>1</v>
       </c>
@@ -6535,7 +6547,7 @@
         <v>1</v>
       </c>
       <c r="C47" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D47" t="s">
         <v>6</v>
@@ -6604,7 +6616,7 @@
         <v>{"art":"ski","typ":"ski","alter":"erwachsener","farbe":"blau","kategorie":"","tage_1":25,"tage_2":35,"tage_7":90,"tage_14":135,"tage_100":250,"tage_100_ab":false},</v>
       </c>
     </row>
-    <row r="48" spans="1:23">
+    <row r="48" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
         <v>1</v>
       </c>
@@ -6612,7 +6624,7 @@
         <v>1</v>
       </c>
       <c r="C48" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D48" t="s">
         <v>39</v>
@@ -6681,7 +6693,7 @@
         <v>{"art":"ski","typ":"ski","alter":"erwachsener","farbe":"rot","kategorie":"","tage_1":30,"tage_2":45,"tage_7":120,"tage_14":180,"tage_100":300,"tage_100_ab":false},</v>
       </c>
     </row>
-    <row r="49" spans="1:23">
+    <row r="49" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
         <v>1</v>
       </c>
@@ -6689,7 +6701,7 @@
         <v>1</v>
       </c>
       <c r="C49" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D49" t="s">
         <v>40</v>
@@ -6761,7 +6773,7 @@
         <v>{"art":"ski","typ":"ski","alter":"erwachsener","farbe":"schwarz","kategorie":"","tage_1":35,"tage_2":55,"tage_7":135,"tage_14":225,"tage_100":350,"tage_100_ab":true},</v>
       </c>
     </row>
-    <row r="50" spans="1:23">
+    <row r="50" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A50" t="s">
         <v>1</v>
       </c>
@@ -6769,10 +6781,10 @@
         <v>38</v>
       </c>
       <c r="C50" t="s">
+        <v>50</v>
+      </c>
+      <c r="D50" t="s">
         <v>51</v>
-      </c>
-      <c r="D50" t="s">
-        <v>52</v>
       </c>
       <c r="F50">
         <v>-1</v>
@@ -6838,7 +6850,7 @@
         <v>{"art":"ski","typ":"schuhe","alter":"erwachsener","farbe":"aktion","kategorie":"","tage_1":-1,"tage_2":-1,"tage_7":-1,"tage_14":-1,"tage_100":-1,"tage_100_ab":false},</v>
       </c>
     </row>
-    <row r="51" spans="1:23">
+    <row r="51" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A51" t="s">
         <v>1</v>
       </c>
@@ -6846,7 +6858,7 @@
         <v>38</v>
       </c>
       <c r="C51" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D51" t="s">
         <v>6</v>
@@ -6915,7 +6927,7 @@
         <v>{"art":"ski","typ":"schuhe","alter":"erwachsener","farbe":"blau","kategorie":"","tage_1":10,"tage_2":20,"tage_7":50,"tage_14":75,"tage_100":90,"tage_100_ab":false},</v>
       </c>
     </row>
-    <row r="52" spans="1:23">
+    <row r="52" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A52" t="s">
         <v>1</v>
       </c>
@@ -6923,7 +6935,7 @@
         <v>38</v>
       </c>
       <c r="C52" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D52" t="s">
         <v>39</v>
@@ -6992,7 +7004,7 @@
         <v>{"art":"ski","typ":"schuhe","alter":"erwachsener","farbe":"rot","kategorie":"","tage_1":15,"tage_2":25,"tage_7":70,"tage_14":100,"tage_100":115,"tage_100_ab":false},</v>
       </c>
     </row>
-    <row r="53" spans="1:23">
+    <row r="53" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A53" t="s">
         <v>1</v>
       </c>
@@ -7000,7 +7012,7 @@
         <v>38</v>
       </c>
       <c r="C53" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D53" t="s">
         <v>40</v>
@@ -7072,7 +7084,7 @@
         <v>{"art":"ski","typ":"schuhe","alter":"erwachsener","farbe":"schwarz","kategorie":"","tage_1":20,"tage_2":30,"tage_7":85,"tage_14":120,"tage_100":140,"tage_100_ab":true},</v>
       </c>
     </row>
-    <row r="54" spans="1:23">
+    <row r="54" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A54" t="s">
         <v>1</v>
       </c>
@@ -7080,7 +7092,7 @@
         <v>41</v>
       </c>
       <c r="C54" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D54" t="s">
         <v>42</v>
@@ -7153,11 +7165,6 @@
   <autoFilter ref="A3:K54"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
-  <extLst>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
-      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
-    </ext>
-  </extLst>
 </worksheet>
 </file>
 
@@ -7169,12 +7176,12 @@
       <selection activeCell="S22" sqref="S22:W22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="16384" width="10.83203125" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:23" ht="18">
+    <row r="1" spans="1:23" ht="18" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>11</v>
       </c>
@@ -7235,7 +7242,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="2" spans="1:23" ht="18">
+    <row r="2" spans="1:23" ht="18" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>13</v>
       </c>
@@ -7296,7 +7303,7 @@
         <v>240</v>
       </c>
     </row>
-    <row r="3" spans="1:23" ht="18">
+    <row r="3" spans="1:23" ht="18" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
         <v>14</v>
       </c>
@@ -7357,7 +7364,7 @@
         <v>350</v>
       </c>
     </row>
-    <row r="4" spans="1:23" ht="18">
+    <row r="4" spans="1:23" ht="18" x14ac:dyDescent="0.2">
       <c r="I4" s="1"/>
       <c r="J4" s="1" t="s">
         <v>12</v>
@@ -7397,7 +7404,7 @@
         <v>425</v>
       </c>
     </row>
-    <row r="5" spans="1:23" ht="18">
+    <row r="5" spans="1:23" ht="18" x14ac:dyDescent="0.2">
       <c r="I5" s="1"/>
       <c r="J5" s="1" t="s">
         <v>12</v>
@@ -7437,7 +7444,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="6" spans="1:23" ht="18">
+    <row r="6" spans="1:23" ht="18" x14ac:dyDescent="0.2">
       <c r="A6" s="3" t="s">
         <v>15</v>
       </c>
@@ -7458,7 +7465,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="7" spans="1:23" ht="18">
+    <row r="7" spans="1:23" ht="18" x14ac:dyDescent="0.2">
       <c r="A7" s="4" t="s">
         <v>11</v>
       </c>
@@ -7500,7 +7507,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="8" spans="1:23" ht="18">
+    <row r="8" spans="1:23" ht="18" x14ac:dyDescent="0.2">
       <c r="A8" s="4" t="s">
         <v>13</v>
       </c>
@@ -7561,7 +7568,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="9" spans="1:23" ht="18">
+    <row r="9" spans="1:23" ht="18" x14ac:dyDescent="0.2">
       <c r="A9" s="4" t="s">
         <v>14</v>
       </c>
@@ -7622,7 +7629,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="10" spans="1:23" ht="18">
+    <row r="10" spans="1:23" ht="18" x14ac:dyDescent="0.2">
       <c r="I10" s="1"/>
       <c r="J10" s="1" t="s">
         <v>12</v>
@@ -7662,7 +7669,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="11" spans="1:23" ht="18">
+    <row r="11" spans="1:23" ht="18" x14ac:dyDescent="0.2">
       <c r="I11" s="1"/>
       <c r="J11" s="1" t="s">
         <v>12</v>
@@ -7702,7 +7709,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="12" spans="1:23" ht="18">
+    <row r="12" spans="1:23" ht="18" x14ac:dyDescent="0.2">
       <c r="Q12" s="1"/>
       <c r="R12" s="1" t="s">
         <v>12</v>
@@ -7723,7 +7730,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="13" spans="1:23" ht="18">
+    <row r="13" spans="1:23" ht="18" x14ac:dyDescent="0.2">
       <c r="A13" s="3" t="s">
         <v>1</v>
       </c>
@@ -7763,7 +7770,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="14" spans="1:23" ht="18">
+    <row r="14" spans="1:23" ht="18" x14ac:dyDescent="0.2">
       <c r="A14" s="1"/>
       <c r="B14" s="1" t="s">
         <v>12</v>
@@ -7803,7 +7810,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="15" spans="1:23" ht="18">
+    <row r="15" spans="1:23" ht="18" x14ac:dyDescent="0.2">
       <c r="A15" s="1"/>
       <c r="B15" s="1" t="s">
         <v>12</v>
@@ -7862,7 +7869,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="16" spans="1:23" ht="18">
+    <row r="16" spans="1:23" ht="18" x14ac:dyDescent="0.2">
       <c r="A16" s="1"/>
       <c r="B16" s="1" t="s">
         <v>12</v>
@@ -7921,7 +7928,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="17" spans="1:23" ht="18">
+    <row r="17" spans="1:23" ht="18" x14ac:dyDescent="0.2">
       <c r="Q17" s="1"/>
       <c r="R17" s="1" t="s">
         <v>12</v>
@@ -7942,7 +7949,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="18" spans="1:23" ht="18">
+    <row r="18" spans="1:23" ht="18" x14ac:dyDescent="0.2">
       <c r="I18" s="3" t="s">
         <v>28</v>
       </c>
@@ -7982,7 +7989,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="19" spans="1:23" ht="18">
+    <row r="19" spans="1:23" ht="18" x14ac:dyDescent="0.2">
       <c r="A19" s="3" t="s">
         <v>25</v>
       </c>
@@ -8022,7 +8029,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="20" spans="1:23" ht="18">
+    <row r="20" spans="1:23" ht="18" x14ac:dyDescent="0.2">
       <c r="A20" s="1" t="s">
         <v>7</v>
       </c>
@@ -8045,7 +8052,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="21" spans="1:23" ht="18">
+    <row r="21" spans="1:23" ht="18" x14ac:dyDescent="0.2">
       <c r="A21" s="1" t="s">
         <v>8</v>
       </c>
@@ -8087,7 +8094,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="22" spans="1:23" ht="18">
+    <row r="22" spans="1:23" ht="18" x14ac:dyDescent="0.2">
       <c r="A22" s="1" t="s">
         <v>26</v>
       </c>
@@ -8129,7 +8136,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="25" spans="1:23" ht="18">
+    <row r="25" spans="1:23" ht="18" x14ac:dyDescent="0.2">
       <c r="A25" s="3" t="s">
         <v>28</v>
       </c>
@@ -8150,7 +8157,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="26" spans="1:23" ht="18">
+    <row r="26" spans="1:23" ht="18" x14ac:dyDescent="0.2">
       <c r="A26" s="1"/>
       <c r="B26" s="1" t="s">
         <v>12</v>
@@ -8180,10 +8187,5 @@
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <drawing r:id="rId4"/>
-  <extLst>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
-      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
-    </ext>
-  </extLst>
 </worksheet>
 </file>